--- a/Modelagem/Projeto SP Med. Group-modelagem-Fisico-.xlsx
+++ b/Modelagem/Projeto SP Med. Group-modelagem-Fisico-.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Documents\Projeto SP Med. Group\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\Projeto-SP-Med.-Group\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36FA080A-ABD1-4A8B-8921-7AD361B6D534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DB549D-F2B6-4249-A75C-A8038314915B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{D221628C-13A4-46E7-8F3D-2CBC45BF9F1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D221628C-13A4-46E7-8F3D-2CBC45BF9F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>tipoUsuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Adminisatrador</t>
   </si>
   <si>
-    <t>Comum</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>mariana723</t>
   </si>
   <si>
-    <t>paciente</t>
-  </si>
-  <si>
     <t>idPaciente</t>
   </si>
   <si>
@@ -196,13 +190,223 @@
   </si>
   <si>
     <t>Rua Estado de Israel 240, São Paulo, Estado de São Paulo, 04022-000</t>
+  </si>
+  <si>
+    <t>Av. Paulista, 1578 - Bela Vista, São Paulo - SP, 01310-200</t>
+  </si>
+  <si>
+    <t>Av. Ibirapuera - Indianópolis, 2927, São Paulo - SP, 04029-200</t>
+  </si>
+  <si>
+    <t>R. Vitória, 120 - Vila Sao Jorge, Barueri - SP, 06402-030</t>
+  </si>
+  <si>
+    <t>R. Ver. Geraldo de Camargo, 66 - Santa Luzia, Ribeirão Pires - SP, 09405-380</t>
+  </si>
+  <si>
+    <t>Alameda dos Arapanés, 945 - Indianópolis, São Paulo - SP, 04524-001</t>
+  </si>
+  <si>
+    <t>R Sao Antonio, 232 - Vila Universal, Barueri - SP, 06407-140</t>
+  </si>
+  <si>
+    <t>medico</t>
+  </si>
+  <si>
+    <t>idMedico</t>
+  </si>
+  <si>
+    <t>idClinica</t>
+  </si>
+  <si>
+    <t>clinica</t>
+  </si>
+  <si>
+    <t>nomeFantasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinica Possarle </t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>razaoSocial</t>
+  </si>
+  <si>
+    <t>endereço</t>
+  </si>
+  <si>
+    <t>86.400.902/0001-30</t>
+  </si>
+  <si>
+    <t>SP Medical Group</t>
+  </si>
+  <si>
+    <t>Av. Barão Limeira, 532, São Paulo, SP</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>especialidade</t>
+  </si>
+  <si>
+    <t>idEspecializacao</t>
+  </si>
+  <si>
+    <t>tipoEspecializacao</t>
+  </si>
+  <si>
+    <t>Acupuntura</t>
+  </si>
+  <si>
+    <t>Anestesiologia</t>
+  </si>
+  <si>
+    <t>Angiologia</t>
+  </si>
+  <si>
+    <t>Cardiologia</t>
+  </si>
+  <si>
+    <t>Cirurgia Cardiovascular</t>
+  </si>
+  <si>
+    <t>Cirurgia da Mão</t>
+  </si>
+  <si>
+    <t>Cirurgia do Aparelho Digestivo</t>
+  </si>
+  <si>
+    <t>Cirurgia Geral</t>
+  </si>
+  <si>
+    <t>Cirurgia Pediátrica</t>
+  </si>
+  <si>
+    <t>Cirurgia Plástica</t>
+  </si>
+  <si>
+    <t>Cirurgia Torácica</t>
+  </si>
+  <si>
+    <t>Cirurgia Vascular</t>
+  </si>
+  <si>
+    <t>Dermatologia</t>
+  </si>
+  <si>
+    <t>Radioterapia</t>
+  </si>
+  <si>
+    <t>Urologia</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>Psiquiatria</t>
+  </si>
+  <si>
+    <t>ricardo.lemos@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>roberto.possarle@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>helena.souza@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>nomeMedico</t>
+  </si>
+  <si>
+    <t>Ricardo Lemos</t>
+  </si>
+  <si>
+    <t>Roberto Possarle</t>
+  </si>
+  <si>
+    <t>Helena Strada</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>54356-SP</t>
+  </si>
+  <si>
+    <t>53452-SP</t>
+  </si>
+  <si>
+    <t>65463-SP</t>
+  </si>
+  <si>
+    <t>ricardo123</t>
+  </si>
+  <si>
+    <t>roberto123</t>
+  </si>
+  <si>
+    <t>helena123</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>idSituacao</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>Realizada</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Agendada</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>idConsulta</t>
+  </si>
+  <si>
+    <t>dataConsulta</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>estado normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado grave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultra grave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>adm@adm.com</t>
+  </si>
+  <si>
+    <t>adm132</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,16 +429,181 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,28 +611,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -579,329 +1235,951 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FB0D3B-28F0-4C7A-B0C9-E5A34AA3E1EF}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="51"/>
+      <c r="D1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="54">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43">
+        <v>2</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" s="45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>2</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="42">
+        <v>2</v>
+      </c>
+      <c r="E4" s="43">
+        <v>2</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>3</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="42">
+        <v>3</v>
+      </c>
+      <c r="E5" s="43">
+        <v>2</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="42">
+        <v>4</v>
+      </c>
+      <c r="E6" s="43">
+        <v>2</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="42">
+        <v>5</v>
+      </c>
+      <c r="E7" s="43">
+        <v>2</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="42">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43">
+        <v>2</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="42">
+        <v>7</v>
+      </c>
+      <c r="E9" s="43">
+        <v>2</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="102"/>
+      <c r="D10" s="42">
+        <v>8</v>
+      </c>
+      <c r="E10" s="43">
+        <v>3</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="42">
+        <v>9</v>
+      </c>
+      <c r="E11" s="43">
+        <v>3</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="42">
+        <v>10</v>
+      </c>
+      <c r="E12" s="43">
+        <v>3</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="46">
+        <v>11</v>
+      </c>
+      <c r="E13" s="47">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F13" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="12">
+        <v>94839859000</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="12">
+        <v>73556944057</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14">
+        <v>28773</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="12">
+        <v>16839338002</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>4</v>
+      </c>
+      <c r="B21" s="10">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="12">
+        <v>14332654765</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>5</v>
+      </c>
+      <c r="B22" s="10">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="12">
+        <v>91305348010</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>6</v>
+      </c>
+      <c r="B23" s="10">
+        <v>6</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="12">
+        <v>79799299004</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>7</v>
+      </c>
+      <c r="B24" s="16">
+        <v>7</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="18">
+        <v>43223</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="19">
+        <v>13771913039</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="95"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="J29" s="98">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K29" s="99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="98">
+        <v>2</v>
+      </c>
+      <c r="K30" s="99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>1</v>
+      </c>
+      <c r="B31" s="29">
+        <v>1</v>
+      </c>
+      <c r="C31" s="29">
+        <v>2</v>
+      </c>
+      <c r="D31" s="29">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E31" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="98">
+        <v>3</v>
+      </c>
+      <c r="K31" s="99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>2</v>
+      </c>
+      <c r="B32" s="29">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
+        <v>17</v>
+      </c>
+      <c r="D32" s="29">
+        <v>9</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="98">
+        <v>4</v>
+      </c>
+      <c r="K32" s="99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>3</v>
+      </c>
+      <c r="B33" s="33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="33">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D33" s="33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="98">
+        <v>5</v>
+      </c>
+      <c r="K33" s="99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J34" s="98">
+        <v>6</v>
+      </c>
+      <c r="K34" s="99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J35" s="98">
+        <v>7</v>
+      </c>
+      <c r="K35" s="99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36" s="98">
+        <v>8</v>
+      </c>
+      <c r="K36" s="99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J37" s="98">
+        <v>9</v>
+      </c>
+      <c r="K37" s="99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="J38" s="98">
+        <v>10</v>
+      </c>
+      <c r="K38" s="99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="98">
+        <v>11</v>
+      </c>
+      <c r="K39" s="99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="64">
+        <v>1</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="98">
+        <v>12</v>
+      </c>
+      <c r="K40" s="99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="98">
+        <v>13</v>
+      </c>
+      <c r="K41" s="99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J42" s="98">
+        <v>14</v>
+      </c>
+      <c r="K42" s="99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="98">
+        <v>15</v>
+      </c>
+      <c r="K43" s="99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="J44" s="98">
+        <v>16</v>
+      </c>
+      <c r="K44" s="99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="100">
+        <v>17</v>
+      </c>
+      <c r="K45" s="101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="72">
+        <v>1</v>
+      </c>
+      <c r="B46" s="73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="72">
+        <v>2</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="75">
+        <v>3</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="84">
+        <v>1</v>
+      </c>
+      <c r="E51" s="85">
+        <v>7</v>
+      </c>
+      <c r="F51" s="85">
+        <v>3</v>
+      </c>
+      <c r="G51" s="85">
+        <v>1</v>
+      </c>
+      <c r="H51" s="86">
+        <v>43850.625</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="84">
+        <v>2</v>
+      </c>
+      <c r="E52" s="85">
+        <v>2</v>
+      </c>
+      <c r="F52" s="85">
+        <v>2</v>
+      </c>
+      <c r="G52" s="85">
+        <v>2</v>
+      </c>
+      <c r="H52" s="88">
+        <v>43983.416666666664</v>
+      </c>
+      <c r="I52" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="84">
+        <v>3</v>
+      </c>
+      <c r="E53" s="85">
+        <v>3</v>
+      </c>
+      <c r="F53" s="85">
+        <v>2</v>
+      </c>
+      <c r="G53" s="85">
+        <v>1</v>
+      </c>
+      <c r="H53" s="89">
+        <v>43868.458333333336</v>
+      </c>
+      <c r="I53" s="87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="84">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="1">
+      <c r="E54" s="85">
+        <v>2</v>
+      </c>
+      <c r="F54" s="85">
+        <v>2</v>
+      </c>
+      <c r="G54" s="85">
+        <v>1</v>
+      </c>
+      <c r="H54" s="89">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="I54" s="87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="84">
+        <v>5</v>
+      </c>
+      <c r="E55" s="85">
+        <v>4</v>
+      </c>
+      <c r="F55" s="85">
+        <v>1</v>
+      </c>
+      <c r="G55" s="85">
+        <v>2</v>
+      </c>
+      <c r="H55" s="89">
+        <v>43503.458854166667</v>
+      </c>
+      <c r="I55" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="84">
+        <v>6</v>
+      </c>
+      <c r="E56" s="85">
+        <v>7</v>
+      </c>
+      <c r="F56" s="85">
+        <v>2</v>
+      </c>
+      <c r="G56" s="85">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="1">
+      <c r="H56" s="89">
+        <v>43898.625</v>
+      </c>
+      <c r="I56" s="87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="90">
+        <v>7</v>
+      </c>
+      <c r="E57" s="91">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="F57" s="91">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="6">
-        <v>94839859000</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="6">
-        <v>73556944057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="G57" s="91">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5">
-        <v>28773</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="6">
-        <v>16839338002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="6">
-        <v>14332654765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="6">
-        <v>91305348010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="6">
-        <v>79799299004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5">
-        <v>43223</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="6">
-        <v>13771913039</v>
+      <c r="H57" s="92">
+        <v>43899.458854166667</v>
+      </c>
+      <c r="I57" s="93" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{40BFF053-EFB0-432E-8942-9AFE628E958E}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{03FDD0B4-B5BB-41BA-97C7-178C18C89863}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{7A8A814D-745F-4155-9128-71E2714EFDF6}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{CC8F016D-6C28-4151-BB99-E1E81E79E315}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{02BF30B4-8ADE-4779-A54F-150CFCD5A7FD}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{FF0FB7AF-C0B9-4130-8D3B-72639B02FB8B}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{6B343913-8CC0-47C9-ACA2-191929CD457B}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{40BFF053-EFB0-432E-8942-9AFE628E958E}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{03FDD0B4-B5BB-41BA-97C7-178C18C89863}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{7A8A814D-745F-4155-9128-71E2714EFDF6}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{CC8F016D-6C28-4151-BB99-E1E81E79E315}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{02BF30B4-8ADE-4779-A54F-150CFCD5A7FD}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{FF0FB7AF-C0B9-4130-8D3B-72639B02FB8B}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{6B343913-8CC0-47C9-ACA2-191929CD457B}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{8E53ED94-B89E-47F7-90DF-AF297C655C2E}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{BF8DB9F0-1561-4596-BCDC-338216FE6D4C}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{8CDA86C3-1B54-4F4E-937E-DE8A3084508F}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{F8A5276B-D0D1-4A44-8D21-12D7D6BDFF0F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>